--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="HeroPromote" sheetId="1" r:id="rId4"/>
+    <sheet name="HeroPromote" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -77,33 +80,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,17 +262,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -218,90 +553,394 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -427,7 +1066,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -436,7 +1075,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,7 +1084,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,13 +1158,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -545,8 +1183,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,8 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,8 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,8 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,8 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,8 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,8 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,8 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,8 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,8 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,9 +1425,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -814,13 +1448,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -840,8 +1473,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,8 +1498,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,8 +1523,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,8 +1548,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,8 +1573,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,8 +1598,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,8 +1623,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,8 +1648,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,8 +1673,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,8 +1698,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1711,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1101,8 +1730,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1122,8 +1749,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,8 +1778,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,8 +1803,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,8 +1828,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,8 +1853,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,8 +1878,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,8 +1903,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,8 +1928,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,8 +1953,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,8 +1978,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,9 +1991,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1385,23 +2008,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="9" width="17.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85" style="1" customWidth="1"/>
+    <col min="5" max="9" width="17.35" style="1" customWidth="1"/>
     <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1413,10 +2039,10 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1">
+    <row r="2" ht="47" customHeight="1" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
@@ -1426,63 +2052,63 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s" s="7">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="7">
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
@@ -1493,34 +2119,34 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s" s="7">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="7">
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8">
@@ -1545,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9">
@@ -1570,31 +2196,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1">
+    <row r="9" ht="16.15" customHeight="1" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row r="10" ht="14" customHeight="1" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -102,7 +102,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -110,6 +125,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,15 +199,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,76 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -235,22 +251,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,61 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,159 +587,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2013,7 +2013,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:I10"/>
+      <selection activeCell="D7" sqref="D7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2156,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:9">
@@ -2177,23 +2177,23 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1" spans="1:9">
@@ -2202,23 +2202,23 @@
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:9">
@@ -2227,23 +2227,23 @@
       <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="HeroPromote" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>英雄id</t>
+  </si>
+  <si>
+    <t>此列由前6列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -28,22 +31,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>promoteCostId1</t>
-  </si>
-  <si>
-    <t>promoteCostId2</t>
-  </si>
-  <si>
-    <t>promoteCostId3</t>
-  </si>
-  <si>
-    <t>promoteCostId4</t>
-  </si>
-  <si>
-    <t>promoteCostId5</t>
-  </si>
-  <si>
-    <t>promoteCostId6</t>
+    <t>promoteCostId</t>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -67,6 +55,9 @@
     <t>突破6消耗id</t>
   </si>
   <si>
+    <t>突破消耗id</t>
+  </si>
+  <si>
     <t>字段控制</t>
   </si>
   <si>
@@ -75,18 +66,21 @@
   <si>
     <t>int32</t>
   </si>
+  <si>
+    <t>[]int32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -99,6 +93,34 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -115,14 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -130,31 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +167,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,45 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +214,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,37 +272,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,150 +458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -552,11 +557,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +612,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,194 +669,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -810,57 +830,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1195,7 +1220,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1761,7 +1786,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2008,25 +2033,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85" style="1" customWidth="1"/>
-    <col min="5" max="9" width="17.35" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8461538461538" style="1" customWidth="1"/>
+    <col min="5" max="9" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.8461538461538" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:9">
+    <row r="1" ht="14" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2038,8 +2064,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:9">
+    <row r="2" ht="47" customHeight="1" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2051,65 +2078,62 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:9">
+    <row r="3" ht="16.15" customHeight="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:9">
+    <row r="4" ht="16.15" customHeight="1" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:9">
+    <row r="5" ht="16.15" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -2118,35 +2142,27 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:9">
+    <row r="6" ht="16.15" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9">
+    <row r="7" ht="25" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8">
@@ -2170,8 +2186,12 @@
       <c r="I7" s="8">
         <v>5</v>
       </c>
+      <c r="J7" s="14" t="str">
+        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
+        <v>1,2,3,4,5,5</v>
+      </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:9">
+    <row r="8" ht="25" customHeight="1" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="9">
@@ -2195,8 +2215,12 @@
       <c r="I8" s="8">
         <v>5</v>
       </c>
+      <c r="J8" s="14" t="str">
+        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8</f>
+        <v>1,2,3,4,5,5</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:9">
+    <row r="9" ht="16.15" customHeight="1" spans="1:10">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="8">
@@ -2220,8 +2244,12 @@
       <c r="I9" s="8">
         <v>5</v>
       </c>
+      <c r="J9" s="14" t="str">
+        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9</f>
+        <v>1,2,3,4,5,5</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:9">
+    <row r="10" ht="14" customHeight="1" spans="1:10">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9">
@@ -2245,9 +2273,13 @@
       <c r="I10" s="8">
         <v>5</v>
       </c>
+      <c r="J10" s="14" t="str">
+        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10</f>
+        <v>1,2,3,4,5,5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -25,6 +25,9 @@
     <t>此列由前6列自动生成，不用填写</t>
   </si>
   <si>
+    <t>对应att表id</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>promoteCostId</t>
   </si>
   <si>
+    <t>promoteAttId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -56,6 +62,27 @@
   </si>
   <si>
     <t>突破消耗id</t>
+  </si>
+  <si>
+    <t>突破1属性id</t>
+  </si>
+  <si>
+    <t>突破2属性id</t>
+  </si>
+  <si>
+    <t>突破3属性id</t>
+  </si>
+  <si>
+    <t>突破4属性id</t>
+  </si>
+  <si>
+    <t>突破5属性id</t>
+  </si>
+  <si>
+    <t>突破6属性id</t>
+  </si>
+  <si>
+    <t>装备突破属性</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -75,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -101,23 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,10 +141,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,27 +171,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,37 +211,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,20 +263,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -278,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +550,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -557,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,32 +621,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -646,6 +656,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -661,163 +682,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -826,15 +853,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2035,10 +2065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2046,13 +2076,14 @@
     <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="9" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="4" max="9" width="11.4615384615385" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.8461538461538" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="11" max="16" width="11.4615384615385" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6923076923077" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:10">
+    <row r="1" ht="14" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2065,8 +2096,15 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:10">
+    <row r="2" ht="47" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2078,17 +2116,28 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="K2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="13" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:10">
+    <row r="3" ht="16.15" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2096,61 +2145,98 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>5</v>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:10">
+    <row r="4" ht="16.15" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:10">
+    <row r="5" ht="16.15" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:10">
+    <row r="6" ht="16.15" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2158,124 +2244,221 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10">
+    <row r="7" ht="25" customHeight="1" spans="1:17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="J7" s="14" t="str">
+      <c r="J7" s="15" t="str">
         <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
         <v>1,2,3,4,5,5</v>
       </c>
+      <c r="K7" s="15">
+        <v>12</v>
+      </c>
+      <c r="L7" s="15">
+        <v>13</v>
+      </c>
+      <c r="M7" s="15">
+        <v>14</v>
+      </c>
+      <c r="N7" s="15">
+        <v>15</v>
+      </c>
+      <c r="O7" s="15">
+        <v>16</v>
+      </c>
+      <c r="P7" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="15" t="str">
+        <f>K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
+        <v>12,13,14,15,16,16</v>
+      </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:10">
+    <row r="8" ht="25" customHeight="1" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>5</v>
       </c>
-      <c r="J8" s="14" t="str">
+      <c r="J8" s="15" t="str">
         <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8</f>
         <v>1,2,3,4,5,5</v>
       </c>
+      <c r="K8" s="15">
+        <v>13</v>
+      </c>
+      <c r="L8" s="15">
+        <v>14</v>
+      </c>
+      <c r="M8" s="15">
+        <v>15</v>
+      </c>
+      <c r="N8" s="15">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15">
+        <v>17</v>
+      </c>
+      <c r="P8" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="15" t="str">
+        <f>K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8&amp;","&amp;O8&amp;","&amp;P8</f>
+        <v>13,14,15,16,17,17</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8">
+    <row r="9" ht="16.15" customHeight="1" spans="1:17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="9">
         <v>5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>5</v>
       </c>
-      <c r="J9" s="14" t="str">
+      <c r="J9" s="15" t="str">
         <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9</f>
         <v>1,2,3,4,5,5</v>
       </c>
+      <c r="K9" s="15">
+        <v>14</v>
+      </c>
+      <c r="L9" s="15">
+        <v>15</v>
+      </c>
+      <c r="M9" s="15">
+        <v>16</v>
+      </c>
+      <c r="N9" s="15">
+        <v>17</v>
+      </c>
+      <c r="O9" s="15">
+        <v>18</v>
+      </c>
+      <c r="P9" s="15">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="15" t="str">
+        <f>K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","&amp;P9</f>
+        <v>14,15,16,17,18,18</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9">
+    <row r="10" ht="14" customHeight="1" spans="1:17">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10">
         <v>4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="14" t="str">
+      <c r="J10" s="15" t="str">
         <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10</f>
         <v>1,2,3,4,5,5</v>
+      </c>
+      <c r="K10" s="15">
+        <v>15</v>
+      </c>
+      <c r="L10" s="15">
+        <v>16</v>
+      </c>
+      <c r="M10" s="15">
+        <v>17</v>
+      </c>
+      <c r="N10" s="15">
+        <v>18</v>
+      </c>
+      <c r="O10" s="15">
+        <v>19</v>
+      </c>
+      <c r="P10" s="15">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="15" t="str">
+        <f>K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","&amp;P10</f>
+        <v>15,16,17,18,19,19</v>
       </c>
     </row>
   </sheetData>

--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroPromote" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,6 +22,9 @@
     <t>英雄id</t>
   </si>
   <si>
+    <t>对应CostLoot表</t>
+  </si>
+  <si>
     <t>此列由前6列自动生成，不用填写</t>
   </si>
   <si>
@@ -43,22 +46,22 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>突破1消耗id</t>
-  </si>
-  <si>
-    <t>突破2消耗id</t>
-  </si>
-  <si>
-    <t>突破3消耗id</t>
-  </si>
-  <si>
-    <t>突破4消耗id</t>
-  </si>
-  <si>
-    <t>突破5消耗id</t>
-  </si>
-  <si>
-    <t>突破6消耗id</t>
+    <t>英雄突破1消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破2消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破3消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破4消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破5消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破6消耗id</t>
   </si>
   <si>
     <t>突破消耗id</t>
@@ -82,7 +85,7 @@
     <t>突破6属性id</t>
   </si>
   <si>
-    <t>装备突破属性</t>
+    <t>英雄突破属性</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -128,51 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +152,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,60 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,55 +308,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,127 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,15 +605,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -627,16 +621,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,191 +685,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,54 +871,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2063,23 +2066,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="9" width="11.4615384615385" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.8461538461538" style="1" customWidth="1"/>
-    <col min="11" max="16" width="11.4615384615385" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6923076923077" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85" style="1" customWidth="1"/>
+    <col min="11" max="16" width="11.4583333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2110,17 +2118,19 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -2128,16 +2138,16 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2146,7 +2156,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -2155,64 +2165,64 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2233,10 +2243,10 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2245,7 +2255,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -2254,7 +2264,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:17">
@@ -2264,48 +2274,48 @@
         <v>1</v>
       </c>
       <c r="D7" s="9">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E7" s="9">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="F7" s="9">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="G7" s="9">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="H7" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="I7" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J7" s="15" t="str">
         <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
-        <v>1,2,3,4,5,5</v>
+        <v>400,401,402,403,404,404</v>
       </c>
       <c r="K7" s="15">
+        <v>10</v>
+      </c>
+      <c r="L7" s="15">
+        <v>11</v>
+      </c>
+      <c r="M7" s="15">
         <v>12</v>
       </c>
-      <c r="L7" s="15">
+      <c r="N7" s="15">
         <v>13</v>
       </c>
-      <c r="M7" s="15">
+      <c r="O7" s="15">
         <v>14</v>
       </c>
-      <c r="N7" s="15">
-        <v>15</v>
-      </c>
-      <c r="O7" s="15">
-        <v>16</v>
-      </c>
       <c r="P7" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="15" t="str">
         <f>K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
-        <v>12,13,14,15,16,16</v>
+        <v>10,11,12,13,14,14</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:17">
@@ -2315,48 +2325,48 @@
         <v>2</v>
       </c>
       <c r="D8" s="9">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E8" s="9">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="F8" s="9">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="G8" s="9">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="H8" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="I8" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J8" s="15" t="str">
         <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8</f>
-        <v>1,2,3,4,5,5</v>
+        <v>400,401,402,403,404,404</v>
       </c>
       <c r="K8" s="15">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15">
+        <v>11</v>
+      </c>
+      <c r="M8" s="15">
+        <v>12</v>
+      </c>
+      <c r="N8" s="15">
         <v>13</v>
       </c>
-      <c r="L8" s="15">
+      <c r="O8" s="15">
         <v>14</v>
       </c>
-      <c r="M8" s="15">
-        <v>15</v>
-      </c>
-      <c r="N8" s="15">
-        <v>16</v>
-      </c>
-      <c r="O8" s="15">
-        <v>17</v>
-      </c>
       <c r="P8" s="15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f>K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8&amp;","&amp;O8&amp;","&amp;P8</f>
-        <v>13,14,15,16,17,17</v>
+        <v>10,11,12,13,14,14</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1" spans="1:17">
@@ -2366,48 +2376,48 @@
         <v>3</v>
       </c>
       <c r="D9" s="9">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E9" s="9">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="F9" s="9">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="G9" s="9">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="H9" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="I9" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J9" s="15" t="str">
         <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9</f>
-        <v>1,2,3,4,5,5</v>
+        <v>400,401,402,403,404,404</v>
       </c>
       <c r="K9" s="15">
+        <v>10</v>
+      </c>
+      <c r="L9" s="15">
+        <v>11</v>
+      </c>
+      <c r="M9" s="15">
+        <v>12</v>
+      </c>
+      <c r="N9" s="15">
+        <v>13</v>
+      </c>
+      <c r="O9" s="15">
         <v>14</v>
       </c>
-      <c r="L9" s="15">
-        <v>15</v>
-      </c>
-      <c r="M9" s="15">
-        <v>16</v>
-      </c>
-      <c r="N9" s="15">
-        <v>17</v>
-      </c>
-      <c r="O9" s="15">
-        <v>18</v>
-      </c>
       <c r="P9" s="15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f>K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","&amp;P9</f>
-        <v>14,15,16,17,18,18</v>
+        <v>10,11,12,13,14,14</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:17">
@@ -2417,48 +2427,48 @@
         <v>4</v>
       </c>
       <c r="D10" s="9">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E10" s="9">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="F10" s="9">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="G10" s="9">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="H10" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J10" s="15" t="str">
         <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10</f>
-        <v>1,2,3,4,5,5</v>
+        <v>400,401,402,403,404,404</v>
       </c>
       <c r="K10" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L10" s="15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" s="15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N10" s="15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O10" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P10" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="15" t="str">
         <f>K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","&amp;P10</f>
-        <v>15,16,17,18,19,19</v>
+        <v>10,11,12,13,14,14</v>
       </c>
     </row>
   </sheetData>

--- a/global/HeroPromote.xlsx
+++ b/global/HeroPromote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="HeroPromote" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -25,10 +25,7 @@
     <t>对应CostLoot表</t>
   </si>
   <si>
-    <t>此列由前6列自动生成，不用填写</t>
-  </si>
-  <si>
-    <t>对应att表id</t>
+    <t>此列由前7列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -40,52 +37,31 @@
     <t>promoteCostId</t>
   </si>
   <si>
-    <t>promoteAttId</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>英雄突破1消耗id</t>
+    <t>英雄突破1次消耗id</t>
   </si>
   <si>
-    <t>英雄突破2消耗id</t>
+    <t>英雄突破2次消耗id</t>
   </si>
   <si>
-    <t>英雄突破3消耗id</t>
+    <t>英雄突破3次消耗id</t>
   </si>
   <si>
-    <t>英雄突破4消耗id</t>
+    <t>英雄突破4次消耗id</t>
   </si>
   <si>
-    <t>英雄突破5消耗id</t>
+    <t>英雄突破5次消耗id</t>
   </si>
   <si>
-    <t>英雄突破6消耗id</t>
+    <t>英雄突破6次消耗id</t>
+  </si>
+  <si>
+    <t>英雄突破7次消耗id</t>
   </si>
   <si>
     <t>突破消耗id</t>
-  </si>
-  <si>
-    <t>突破1属性id</t>
-  </si>
-  <si>
-    <t>突破2属性id</t>
-  </si>
-  <si>
-    <t>突破3属性id</t>
-  </si>
-  <si>
-    <t>突破4属性id</t>
-  </si>
-  <si>
-    <t>突破5属性id</t>
-  </si>
-  <si>
-    <t>突破6属性id</t>
-  </si>
-  <si>
-    <t>英雄突破属性</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -106,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,15 +106,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,14 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -168,14 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +194,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,39 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,11 +250,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,19 +284,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,19 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,146 +468,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -546,6 +522,15 @@
       <left/>
       <right style="thin">
         <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -605,6 +590,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -613,24 +607,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,151 +669,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,17 +842,15 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2068,10 +2051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2079,19 +2062,19 @@
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85" style="1" customWidth="1"/>
-    <col min="11" max="16" width="11.4583333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.925" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="1" customWidth="1"/>
+    <col min="12" max="16376" width="6" style="1" customWidth="1"/>
+    <col min="16377" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:17">
+    <row r="1" ht="14" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,14 +2088,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:17">
+    <row r="2" ht="47" customHeight="1" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2126,349 +2103,223 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:17">
+    <row r="3" ht="16.15" customHeight="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:17">
+    <row r="4" ht="16.15" customHeight="1" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:17">
+    <row r="5" ht="16.15" customHeight="1" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:17">
+    <row r="6" ht="16.15" customHeight="1" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
-        <v>27</v>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:17">
+    <row r="7" ht="13.5" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>400</v>
-      </c>
-      <c r="E7" s="9">
-        <v>401</v>
-      </c>
-      <c r="F7" s="9">
-        <v>402</v>
-      </c>
-      <c r="G7" s="9">
-        <v>403</v>
-      </c>
-      <c r="H7" s="9">
-        <v>404</v>
-      </c>
-      <c r="I7" s="9">
-        <v>404</v>
-      </c>
-      <c r="J7" s="15" t="str">
-        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
-        <v>400,401,402,403,404,404</v>
-      </c>
-      <c r="K7" s="15">
-        <v>10</v>
-      </c>
-      <c r="L7" s="15">
-        <v>11</v>
-      </c>
-      <c r="M7" s="15">
-        <v>12</v>
-      </c>
-      <c r="N7" s="15">
-        <v>13</v>
-      </c>
-      <c r="O7" s="15">
-        <v>14</v>
-      </c>
-      <c r="P7" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="15" t="str">
-        <f>K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
-        <v>10,11,12,13,14,14</v>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7</v>
+      </c>
+      <c r="K7" s="15" t="str">
+        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7</f>
+        <v>1,2,3,4,5,6,7</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:17">
+    <row r="8" ht="13.5" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
-        <v>400</v>
-      </c>
-      <c r="E8" s="9">
-        <v>401</v>
-      </c>
-      <c r="F8" s="9">
-        <v>402</v>
-      </c>
-      <c r="G8" s="9">
-        <v>403</v>
-      </c>
-      <c r="H8" s="9">
-        <v>404</v>
-      </c>
-      <c r="I8" s="9">
-        <v>404</v>
-      </c>
-      <c r="J8" s="15" t="str">
-        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8</f>
-        <v>400,401,402,403,404,404</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="D8" s="10">
         <v>10</v>
       </c>
-      <c r="L8" s="15">
+      <c r="E8" s="10">
         <v>11</v>
       </c>
-      <c r="M8" s="15">
+      <c r="F8" s="10">
         <v>12</v>
       </c>
-      <c r="N8" s="15">
+      <c r="G8" s="10">
         <v>13</v>
       </c>
-      <c r="O8" s="15">
+      <c r="H8" s="10">
         <v>14</v>
       </c>
-      <c r="P8" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="15" t="str">
-        <f>K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8&amp;","&amp;O8&amp;","&amp;P8</f>
-        <v>10,11,12,13,14,14</v>
+      <c r="I8" s="10">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10">
+        <v>16</v>
+      </c>
+      <c r="K8" s="15" t="str">
+        <f>D8&amp;","&amp;E8&amp;","&amp;F8&amp;","&amp;G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8</f>
+        <v>10,11,12,13,14,15,16</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:17">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9">
+    <row r="9" ht="16.15" customHeight="1" spans="1:11">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
-        <v>400</v>
-      </c>
-      <c r="E9" s="9">
-        <v>401</v>
-      </c>
-      <c r="F9" s="9">
-        <v>402</v>
-      </c>
-      <c r="G9" s="9">
-        <v>403</v>
-      </c>
-      <c r="H9" s="9">
-        <v>404</v>
-      </c>
-      <c r="I9" s="9">
-        <v>404</v>
-      </c>
-      <c r="J9" s="15" t="str">
-        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9</f>
-        <v>400,401,402,403,404,404</v>
-      </c>
-      <c r="K9" s="15">
-        <v>10</v>
-      </c>
-      <c r="L9" s="15">
-        <v>11</v>
-      </c>
-      <c r="M9" s="15">
-        <v>12</v>
-      </c>
-      <c r="N9" s="15">
-        <v>13</v>
-      </c>
-      <c r="O9" s="15">
-        <v>14</v>
-      </c>
-      <c r="P9" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="15" t="str">
-        <f>K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","&amp;P9</f>
-        <v>10,11,12,13,14,14</v>
+      <c r="D9" s="10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10">
+        <v>23</v>
+      </c>
+      <c r="H9" s="10">
+        <v>24</v>
+      </c>
+      <c r="I9" s="10">
+        <v>25</v>
+      </c>
+      <c r="J9" s="10">
+        <v>26</v>
+      </c>
+      <c r="K9" s="15" t="str">
+        <f>D9&amp;","&amp;E9&amp;","&amp;F9&amp;","&amp;G9&amp;","&amp;H9&amp;","&amp;I9&amp;","&amp;J9</f>
+        <v>20,21,22,23,24,25,26</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:17">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10">
+    <row r="10" ht="14" customHeight="1" spans="1:11">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
-        <v>400</v>
-      </c>
-      <c r="E10" s="9">
-        <v>401</v>
-      </c>
-      <c r="F10" s="9">
-        <v>402</v>
-      </c>
-      <c r="G10" s="9">
-        <v>403</v>
-      </c>
-      <c r="H10" s="9">
-        <v>404</v>
-      </c>
-      <c r="I10" s="9">
-        <v>404</v>
-      </c>
-      <c r="J10" s="15" t="str">
-        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10</f>
-        <v>400,401,402,403,404,404</v>
-      </c>
-      <c r="K10" s="15">
-        <v>10</v>
-      </c>
-      <c r="L10" s="15">
-        <v>11</v>
-      </c>
-      <c r="M10" s="15">
-        <v>12</v>
-      </c>
-      <c r="N10" s="15">
-        <v>13</v>
-      </c>
-      <c r="O10" s="15">
-        <v>14</v>
-      </c>
-      <c r="P10" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="15" t="str">
-        <f>K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","&amp;P10</f>
-        <v>10,11,12,13,14,14</v>
+      <c r="D10" s="10">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10">
+        <v>33</v>
+      </c>
+      <c r="H10" s="10">
+        <v>34</v>
+      </c>
+      <c r="I10" s="10">
+        <v>35</v>
+      </c>
+      <c r="J10" s="10">
+        <v>36</v>
+      </c>
+      <c r="K10" s="15" t="str">
+        <f>D10&amp;","&amp;E10&amp;","&amp;F10&amp;","&amp;G10&amp;","&amp;H10&amp;","&amp;I10&amp;","&amp;J10</f>
+        <v>30,31,32,33,34,35,36</v>
       </c>
     </row>
   </sheetData>
